--- a/pics_13-20_avril.xlsx
+++ b/pics_13-20_avril.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Université\Session 4\Optique (lab)\spectroscopie ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C997B-E637-4DCF-97A9-A400444C2539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525E7E3-9035-46AA-8CFC-CD2870440AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2568" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
   </bookViews>
   <sheets>
     <sheet name="20 avril" sheetId="1" r:id="rId1"/>
@@ -2362,7 +2362,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998A5109-2108-41C4-ABC0-38B12C016BB9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B8D5C5-0036-403F-B514-E31BC31440DC}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pics_13-20_avril.xlsx
+++ b/pics_13-20_avril.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Université\Session 4\Optique (lab)\spectroscopie ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525E7E3-9035-46AA-8CFC-CD2870440AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A385912-3C40-482B-8F6A-F2201D4692CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
+    <workbookView xWindow="5760" yWindow="2568" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
   </bookViews>
   <sheets>
     <sheet name="20 avril" sheetId="1" r:id="rId1"/>
@@ -2637,7 +2637,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2670,16 +2670,16 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3289</v>
+        <v>3185</v>
       </c>
       <c r="C3">
-        <v>736</v>
+        <v>292</v>
       </c>
       <c r="D3">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="E3">
-        <v>202</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,16 +2687,16 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>3289</v>
+        <v>3184</v>
       </c>
       <c r="C4">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>3300</v>
+        <v>3267</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2706,10 +2706,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5">
-        <v>33495</v>
+        <v>3267</v>
       </c>
       <c r="E5">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2717,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>3349</v>
+        <v>3242</v>
       </c>
       <c r="C6">
-        <v>963</v>
+        <v>425</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>

--- a/pics_13-20_avril.xlsx
+++ b/pics_13-20_avril.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Université\Session 4\Optique (lab)\spectroscopie ir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A385912-3C40-482B-8F6A-F2201D4692CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1602EEE-0F77-4D1C-B919-AD2563989CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2568" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9F3226F-5758-497B-9CF8-5E5518C673D3}"/>
   </bookViews>
   <sheets>
     <sheet name="20 avril" sheetId="1" r:id="rId1"/>
@@ -274,12 +274,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7551181102362205E-2"/>
+                  <c:y val="-0.4760728346456693"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20 avril'!$E$2:$E$11</c:f>
+              <c:f>('20 avril'!$E$2:$E$7,'20 avril'!$E$9:$E$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -299,15 +349,12 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -315,10 +362,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20 avril'!$C$2:$C$11</c:f>
+              <c:f>('20 avril'!$C$2:$C$7,'20 avril'!$C$9:$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>7.77</c:v>
                 </c:pt>
@@ -338,15 +385,12 @@
                   <c:v>45.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>401.47</c:v>
+                  <c:v>75.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.239999999999995</c:v>
+                  <c:v>113.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>234.55</c:v>
                 </c:pt>
               </c:numCache>
@@ -1984,16 +2028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2361,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88488F5C-0C1E-44D8-9454-1AE012FD40D7}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,11 +2680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B8D5C5-0036-403F-B514-E31BC31440DC}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
